--- a/mission/static/data/map_design.xlsx
+++ b/mission/static/data/map_design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocnguyen/Documents/workspace-python/minimap-fastapi-socketio/mission/static/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocnguyen/Documents/workspace-python/minimap-complexity-visibility/mission/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15A3797-0990-5B4A-B234-56CFBCC4E470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9315FD0F-5C4E-EC42-9A03-BE87260283DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="760" windowWidth="27440" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="4280" windowWidth="27440" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimap Study 2 Victim List and" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>x/z</t>
-  </si>
-  <si>
-    <t>Red Victims</t>
-  </si>
-  <si>
-    <t>Yellow Victiims</t>
-  </si>
-  <si>
-    <t>Green Victims</t>
-  </si>
-  <si>
-    <t>Rubble</t>
   </si>
 </sst>
 </file>
@@ -1102,13 +1090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CT53"/>
+  <dimension ref="A1:CR53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="9" ySplit="9" topLeftCell="CB10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="CT14" sqref="CT14"/>
+      <selection pane="bottomRight" activeCell="CU22" sqref="CU22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1106,7 @@
     <col min="98" max="98" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1396,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1698,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1988,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2275,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2565,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2855,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3145,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3435,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3725,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4015,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4304,15 +4292,8 @@
       <c r="CR11">
         <v>1</v>
       </c>
-      <c r="CS11" t="s">
-        <v>3</v>
-      </c>
-      <c r="CT11">
-        <f>COUNTIF($B$2:$CR$52, 3)</f>
-        <v>20</v>
-      </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4601,15 +4582,8 @@
       <c r="CR12">
         <v>1</v>
       </c>
-      <c r="CS12" t="s">
-        <v>1</v>
-      </c>
-      <c r="CT12">
-        <f>COUNTIF($B$2:$CR$52, 5)</f>
-        <v>20</v>
-      </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4898,15 +4872,8 @@
       <c r="CR13">
         <v>1</v>
       </c>
-      <c r="CS13" t="s">
-        <v>2</v>
-      </c>
-      <c r="CT13">
-        <f>COUNTIF($B$2:$CR$52, 6)</f>
-        <v>20</v>
-      </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5195,15 +5162,8 @@
       <c r="CR14">
         <v>1</v>
       </c>
-      <c r="CS14" t="s">
-        <v>4</v>
-      </c>
-      <c r="CT14">
-        <f>COUNTIF($B$2:$CR$52, 9)</f>
-        <v>70</v>
-      </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5493,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
